--- a/screenfollow.xlsx
+++ b/screenfollow.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" tabRatio="893"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" tabRatio="893" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Tổng quan" sheetId="1" r:id="rId1"/>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="47">
   <si>
     <t>Tên tiếng anh :</t>
     <phoneticPr fontId="1"/>
@@ -116,22 +116,6 @@
   </si>
   <si>
     <t>②</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>③</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Luyện thi trắc nghiệm bao gồm các tính năng tương tự app dự án 1 (Learn and Quizz JP)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>④</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Client:</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -776,12 +760,20 @@
     </r>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>Client:</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>③</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -829,13 +821,6 @@
       <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -902,7 +887,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1270,14 +1255,6 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>Luyện</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
-            <a:t> thi</a:t>
-          </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
@@ -22457,9 +22434,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D18"/>
+  <dimension ref="B2:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -22504,63 +22483,55 @@
         <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.4">
       <c r="C8" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="C9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" t="s">
-        <v>27</v>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B10" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B11" s="2" t="s">
-        <v>16</v>
+      <c r="C11" s="3" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="C12" s="3" t="s">
-        <v>11</v>
+      <c r="D12" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.4">
       <c r="D13" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="D14" t="s">
-        <v>13</v>
+      <c r="C14" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="C15" s="3" t="s">
-        <v>15</v>
+      <c r="D15" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="D16" t="s">
+      <c r="C16" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C17" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="D18" t="s">
-        <v>17</v>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.4">
+      <c r="D17" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -22574,7 +22545,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A6" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData/>
@@ -22589,7 +22562,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="B5" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -22603,67 +22578,67 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="9" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
     </row>
     <row r="2" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="363.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="8" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="8" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="354" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="8" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="8" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E4" s="4"/>
     </row>
     <row r="5" spans="1:5" ht="354" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="8" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="8" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E5" s="4"/>
     </row>
     <row r="6" spans="1:5" ht="363.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="8" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="8" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="363.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="8" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="8" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -22692,84 +22667,84 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="9" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
     </row>
     <row r="2" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="354" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="8" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="354" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="8" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="8" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E4" s="4"/>
     </row>
     <row r="5" spans="1:5" ht="362.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="8" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="375" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="8" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="363.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="8" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="356.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="8" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="8" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="361.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="8" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="8" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
